--- a/data_year/zb/运输和邮电/旅客运输平均运距.xlsx
+++ b/data_year/zb/运输和邮电/旅客运输平均运距.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,463 +463,265 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2000年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>49</v>
+        <v>49.2043938916</v>
       </c>
       <c r="C2" t="n">
-        <v>82.90000000000001</v>
+        <v>85.31636930010001</v>
       </c>
       <c r="D2" t="n">
-        <v>1443.7</v>
+        <v>1508.8252367221</v>
       </c>
       <c r="E2" t="n">
-        <v>51.8</v>
+        <v>32.274964273</v>
       </c>
       <c r="F2" t="n">
-        <v>431</v>
+        <v>522.7748544301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2001年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>51.38</v>
+        <v>51.001596363</v>
       </c>
       <c r="C3" t="n">
-        <v>85.7500250958</v>
+        <v>87.8650864076</v>
       </c>
       <c r="D3" t="n">
-        <v>1450</v>
+        <v>1547.5716464846</v>
       </c>
       <c r="E3" t="n">
-        <v>48.21</v>
+        <v>30.3504235217</v>
       </c>
       <c r="F3" t="n">
-        <v>453.3117778517</v>
+        <v>516.1626086227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2002年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53</v>
+        <v>51.9187351174</v>
       </c>
       <c r="C4" t="n">
-        <v>88</v>
+        <v>87.75705207110001</v>
       </c>
       <c r="D4" t="n">
-        <v>1476</v>
+        <v>1573.6875835664</v>
       </c>
       <c r="E4" t="n">
-        <v>44</v>
+        <v>30.0866340478</v>
       </c>
       <c r="F4" t="n">
-        <v>471</v>
+        <v>518.2470883504</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2003年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53</v>
+        <v>60.7022800024</v>
       </c>
       <c r="C5" t="n">
-        <v>87</v>
+        <v>129.8717076154</v>
       </c>
       <c r="D5" t="n">
-        <v>1442</v>
+        <v>1598.1068098909</v>
       </c>
       <c r="E5" t="n">
-        <v>37</v>
+        <v>29.0344593159</v>
       </c>
       <c r="F5" t="n">
-        <v>492</v>
+        <v>503.1231585008</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2004年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>54</v>
+        <v>63.3354835365</v>
       </c>
       <c r="C6" t="n">
-        <v>92.27</v>
+        <v>140.9648680701</v>
       </c>
       <c r="D6" t="n">
-        <v>1470</v>
+        <v>1616.0760448452</v>
       </c>
       <c r="E6" t="n">
-        <v>34.8</v>
+        <v>28.2742478264</v>
       </c>
       <c r="F6" t="n">
-        <v>511.09</v>
+        <v>487.8004859846</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2005年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>54.74</v>
+        <v>66.3496905991</v>
       </c>
       <c r="C7" t="n">
-        <v>94.56999999999999</v>
+        <v>154.6819671574</v>
       </c>
       <c r="D7" t="n">
-        <v>1479</v>
+        <v>1669.6206382686</v>
       </c>
       <c r="E7" t="n">
-        <v>33.5</v>
+        <v>26.9961583924</v>
       </c>
       <c r="F7" t="n">
-        <v>524.47</v>
+        <v>471.8484914235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2006年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>54.4526556756</v>
+        <v>66.3014108501</v>
       </c>
       <c r="C8" t="n">
-        <v>94.8404913231</v>
+        <v>164.5013964792</v>
       </c>
       <c r="D8" t="n">
-        <v>1484.6461965863</v>
+        <v>1716.9699534907</v>
       </c>
       <c r="E8" t="n">
-        <v>33.375289155</v>
+        <v>26.5570569592</v>
       </c>
       <c r="F8" t="n">
-        <v>527.0049159165</v>
+        <v>447.0170452345</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.1119570094</v>
+        <v>67.03243064190001</v>
       </c>
       <c r="C9" t="n">
-        <v>96.9250238735</v>
+        <v>177.4988782961</v>
       </c>
       <c r="D9" t="n">
-        <v>1502.8499234548</v>
+        <v>1724.7473819347</v>
       </c>
       <c r="E9" t="n">
-        <v>34.0610028465</v>
+        <v>27.4428281643</v>
       </c>
       <c r="F9" t="n">
-        <v>531.9016731775999</v>
+        <v>436.375547573</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>46.5159754582</v>
+        <v>67.8750700847</v>
       </c>
       <c r="C10" t="n">
-        <v>80.8841430611</v>
+        <v>190.7557720743</v>
       </c>
       <c r="D10" t="n">
-        <v>1497.4712814039</v>
+        <v>1751.1290057482</v>
       </c>
       <c r="E10" t="n">
-        <v>29.1037670896</v>
+        <v>28.4381548046</v>
       </c>
       <c r="F10" t="n">
-        <v>532.078324476</v>
+        <v>419.1646144318</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>48.6183652078</v>
+        <v>68.0699644705</v>
       </c>
       <c r="C11" t="n">
-        <v>83.4255758491</v>
+        <v>200.7982329304</v>
       </c>
       <c r="D11" t="n">
-        <v>1464.2062570589</v>
+        <v>1773.7066171371</v>
       </c>
       <c r="E11" t="n">
-        <v>31.092677243</v>
+        <v>29.4201143517</v>
       </c>
       <c r="F11" t="n">
-        <v>516.8138330457</v>
+        <v>401.8183245868</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>49.2043938916</v>
+        <v>67.3171091851905</v>
       </c>
       <c r="C12" t="n">
-        <v>85.31636930010001</v>
+        <v>199.179209443649</v>
       </c>
       <c r="D12" t="n">
-        <v>1508.8252367221</v>
+        <v>1510.67658894031</v>
       </c>
       <c r="E12" t="n">
-        <v>32.274964273</v>
+        <v>22.0094748782278</v>
       </c>
       <c r="F12" t="n">
-        <v>522.7748544301</v>
+        <v>375.139235258841</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>51.001596363</v>
+        <v>71.3110033242108</v>
       </c>
       <c r="C13" t="n">
-        <v>87.8650864076</v>
+        <v>237.976408872398</v>
       </c>
       <c r="D13" t="n">
-        <v>1547.5716464846</v>
+        <v>1482.14078902427</v>
       </c>
       <c r="E13" t="n">
-        <v>30.3504235217</v>
+        <v>20.2678229359027</v>
       </c>
       <c r="F13" t="n">
-        <v>516.1626086227</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2012年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>51.9187351174</v>
-      </c>
-      <c r="C14" t="n">
-        <v>87.75705207110001</v>
-      </c>
-      <c r="D14" t="n">
-        <v>1573.6875835664</v>
-      </c>
-      <c r="E14" t="n">
-        <v>30.0866340478</v>
-      </c>
-      <c r="F14" t="n">
-        <v>518.2470883504</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>2013年</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>60.7022800024</v>
-      </c>
-      <c r="C15" t="n">
-        <v>129.8717076154</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1598.1068098909</v>
-      </c>
-      <c r="E15" t="n">
-        <v>29.0344593159</v>
-      </c>
-      <c r="F15" t="n">
-        <v>503.1231585008</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>2014年</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>63.3354835365</v>
-      </c>
-      <c r="C16" t="n">
-        <v>140.9648680701</v>
-      </c>
-      <c r="D16" t="n">
-        <v>1616.0760448452</v>
-      </c>
-      <c r="E16" t="n">
-        <v>28.2742478264</v>
-      </c>
-      <c r="F16" t="n">
-        <v>487.8004859846</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>2015年</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>66.3496905991</v>
-      </c>
-      <c r="C17" t="n">
-        <v>154.6819671574</v>
-      </c>
-      <c r="D17" t="n">
-        <v>1669.6206382686</v>
-      </c>
-      <c r="E17" t="n">
-        <v>26.9961583924</v>
-      </c>
-      <c r="F17" t="n">
-        <v>471.8484914235</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>2016年</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>66.3014108501</v>
-      </c>
-      <c r="C18" t="n">
-        <v>164.5013964792</v>
-      </c>
-      <c r="D18" t="n">
-        <v>1716.9699534907</v>
-      </c>
-      <c r="E18" t="n">
-        <v>26.5570569592</v>
-      </c>
-      <c r="F18" t="n">
-        <v>447.0170452345</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>67.03243064190001</v>
-      </c>
-      <c r="C19" t="n">
-        <v>177.4988782961</v>
-      </c>
-      <c r="D19" t="n">
-        <v>1724.7473819347</v>
-      </c>
-      <c r="E19" t="n">
-        <v>27.4428281643</v>
-      </c>
-      <c r="F19" t="n">
-        <v>436.375547573</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>2018年</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>67.8750700847</v>
-      </c>
-      <c r="C20" t="n">
-        <v>190.7557720743</v>
-      </c>
-      <c r="D20" t="n">
-        <v>1751.1290057482</v>
-      </c>
-      <c r="E20" t="n">
-        <v>28.4381548046</v>
-      </c>
-      <c r="F20" t="n">
-        <v>419.1646144318</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>2019年</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>68.0699644705</v>
-      </c>
-      <c r="C21" t="n">
-        <v>200.7982329304</v>
-      </c>
-      <c r="D21" t="n">
-        <v>1773.7066171371</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29.4201143517</v>
-      </c>
-      <c r="F21" t="n">
-        <v>401.8183245868</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>67.3171091851905</v>
-      </c>
-      <c r="C22" t="n">
-        <v>199.179209443649</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1510.67658894031</v>
-      </c>
-      <c r="E22" t="n">
-        <v>22.0094748782278</v>
-      </c>
-      <c r="F22" t="n">
-        <v>375.139235258841</v>
+        <v>366.343481182132</v>
       </c>
     </row>
   </sheetData>
